--- a/Testdata/TC_137.xlsx
+++ b/Testdata/TC_137.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>g0AAAB+LCAAAAAAAAAPtnOtvG1UWwP+VUaSVQKozM3biONbtID/y8DZOQuw2LV+q8cxNMpvxjHceSf2t1QpaWApiKSBe210QsIsoBakLpQnd/wXVbvqp/8Kee+887XHqScuKIqMKMudxH+fee85vbjOgly61dW4PW7ZmGqenxGlhisOGYqqasX16ynW2MmJ+6iUJLVxSsL4uW3IbO2DMgZdhFy/Z2umpHcfpFHl+f39/ej83bVrbfFYQRP58faWh7OC2nNEM25ENBU8FXuqTvaYkVFHbdezIquzIzPP0VK1Rm65gTamCrC4b8ja2psuurRnYthcMR3M0bBNPC8sOrlTr59jEpOx0flpE/JA8tCy7mq4yu5glk3t20C1uam0sZQWxkBHFTHa+KcwVhUJRzE4XxNwrvmNgiFZk22lga09TqKDhyO0OdRfF7LwwJxTELOITjaCtMAASWtPVDbyn2VitYF23U0WE9xawpDgw63TBFBAf8fUaOvkQliy5s9PUHB2ndV80LaxAoE7U9yreX7O8+DU7K6Bt7miW063K3dRtnbWxtdYh0UjnKqGqaTglHVvO2Q4sKlZhzUEhOZaLET9CGTpVNVuBnzXDxaq0Jet21CmmRJumtWt3ZAWvwoHlSRv7hm7KKuwsR7MdTQk7HVKgdcvsQIvQednU1UVo1TNOUAQt1wwIMem2bJq74eiSlIjuAbobYE3bsuObD8lRY8fcXzP0bsNt2YqltbBaLfvWiTpETp7nXXFtx2zDKEIRYrKIRFX5ep3vwj9w3gaVqIoVrS3r6zqE0pZy0FZMgEquY25pTsXU3bZh+yMbkKJNmFcTXwrmGTyjNVhig4TeNGqGb8+CnaiKO2yY+0Gfwwoaioi4ZCv+og8rBo2rIPMXcVhD14XMclHToRxEVyQije+Nxg7GTuLGYBpEMt8iKTBSubvqtltwyFpw0vZorzbiQz2C3Qo7HsYlCVA0MvRPUxCK9A+MI1CjBUMdbecrEXQX6UsiKXlAhGBOelmXjV2QbmrOzmrJn0uCBrEIjLQf1iE4vx1d7lJxEKWoDNUMRXdVzNJCzdiiW5SMjS3qSDUaEq3ASZeQbHSb3Q6kYVsrOvDD6SkozEXbsaD0T0mK6RqO1SX5A/Ge6ZN8bLdl0A5kfWyfLQv/2QXi6C66hlIx1fF7U1l0zhqaM/4ITddiSXF8Fxo9kh9du4pJpqGpf2x/Jc2cbCuVedvAbdPQlPGjDUEmo1dPMBHbP1Vje2B2vsa216G6s+JHzvrYbhbgIpS7VN2UbNtUNLpZveOhRvz5EUemirdkVwdUc6DQbge5d1CMSvbuoE1UhM5aup8BJQLCNpCworanFUAIQnvTitkmAh4AdLOB+Kg94SAFLxjbK7Kx7QJpBHllUB7kX1Ilm5Zs2GQ6AVgMpOJkI+TnKQY8Ekteay7dCCx5maBF/IAdauJ2x7RkvQ6B0Ra9bedREwBJXXZ2vCeobTpW/CDzoWvgFR+ZP/AnmdEixaZBDryXJgeE1IjMhTF3aBPKEJllHY6lXpF1rWWxrOqX8iQdLFiIiH7+JZNLiYv+GsB7F1TfM7hLYDx88OR0y4q+gm1gkkilxsZMITszn5sHsiHPiM54yTJtm6uabUxwjwOmU13F4V5Yqq6/CGWPBsUrPGPYRy3Rop/LaXcvw5jikrgBMMW2BqVi2DDQhA7Syy5kH2zp3Ygtm9GKqYBp7+Ofe6+9+vDGzQf3vupfPuhdPnx8eA3G+PjwdTYrZoaackvHdDTNcqEg5GZgIwUiRKLHUwImk6SyCxco+AbPyHtRow+VhVplaaVME0Yg9N1ZzeDJO2DXdMPHBhs+7YiuGe8vNTORmn4C8p5j2kgNksg72R6OW0f1oxxZLB4efPXw4NZIby9gIUyJ8/PzGSH3RNaCt1sxI2ZHsNZKLMkT45mMMJvJZiPGAzZog2X4IE41VcqJwrwoAtUFyVoN9m2S0aDKa6kpb/MDfkxUYfwTbIHos6+ku74J5yJQs3MQeWBB7P/nr0e334tZedH1JPFWYHCUU0hnvP9Am17daHKNtbMblQWuudAg+yTURexY48cYe70HJym6aYKTdoqDAg4Fi5uqy9Yp7o+ugU9xDdw5xcFb0FTkHMa2XJKUdfdUDQ+OGNKS22F5JuIQShMsw4ST5JGQdKiOxjYp+4TaBA8vKd36PMnBm0s1BFhpo17mWkawTakMxTRMFNF7XVy/8uDefx/cu9f/7p3e3SuxFrx+gssA2PZwuKKPwSmADOjVlwEJ2mzQeO4KFyP1xBOSF6d1UzMcW5pl70zeEwJXkbRG/4tqbShxtGEaL5APSNCybC9ccrxzLq0iPi6AcXZkqK5m+K4ZCFhKD+P66NO/9z++03//u6OrX/fe+FfvzfcfHtw8+vaf7BD23/uuf/1bL+kP1gU6FvIGy6CPo7ciCkcOJ0dqNffL5Xc5w3Q4QAzOpQnql8sfRhojA6UwErYMCBcMJD6EIdOoM/HjIkMJxhDzC1xYwa+QipYLLLyaZnY0JezklQxpipw+qnih1sy4NuZMoCeo5wPGofO4fp4Lq7Drc0KWvEyHInLPILdkOxL6Jd1syTrnK+iFw4BJzOt4h9CW9re0slYurYQmbBBrlootsg3ZD8hHSFJharb/5G+1iAS0AHqKq5M7oiGzYVXQciST8d5ly1ZJJUkw+WoiZoEqrmUxODK8q/qG2wH49S/mRuvpZWWEd1cZm0YJOHyuVeN6eI5ooS7G1URA9TQ1eSqWpmo2uddh+LpKQhM+gi52wQnh8G7jGXjtabAkPMk7C5ZlWonJJ9T4ZnUgZ8gofBjxwIauKaNsNVwrX+AnvGdD27OiMBej7Uq5yJXUPfLXH3aRW4eJstuRYc4eZXkMYS+PS9hDhkmE3cBtTTYMV9ZHQnal/Pjwo6M7P/a/ud87+KH/yc3etX8/fOsqCB/c/Rpq0IS0nxVpFwCz8+OQdu7/QtrC7PyTSdszmpD2uKS9LOtbmS6WgSsDIgYYPilfn6C50VS9nJqqEz2OpeoRGWccsL7+Ru+nO2Oy9fqZDa6dyNa+ZgRbP/zw/oO7V3s/3undvNd//3bv0y971z/r377xlJAtjoZs8WKkjAxDdn4C2RPIfr4gW5xA9vMC2QPJ5zcL2fAWUIhB9gvVyovLJhyaM+RfG9iRNZ0rm4ZKQNoCWCxydU0tcstnuBXN2OVKRU6YoygkCPNFLjedF/6QhOTPpt1jAL46OybADxkmAXwVhjeK3B8fXutd+aR/6zOWtR8fvv7oyw/7d28/+viH3o1ve5fv9a7dJRh/8GP/H4eU5289+uAOvUX/yLN8937/rS9K8BzOER4iwZtw/9NyP8R0NiMApc88ifuFebIGQv5X5/7CONxfmHB/Gu6nB/UUNzXLmeGvmJwA+NO0M5r0q6lJP9HjWNIfTE1jIH7/gy/G5PvlM9UkuKfiEWQP+az36l+ekuOzozk+ezFSqYY5XhTyhQnJT0j+uSL57ITknxeSH0g/v1mSnxXIXxtGSH5zvUbRGtJYlytZkE10chu+aJqA2Yvnitw5vF3kliyMDW4dy3YStadv4xhC38yPSehDhkmEvonx7khE77/+U+/tdxiB99+8CmkPoB0mA6xOgfzg6Msrvfde6717hTD55zfZD4vnyJX8jW+O3v6EiD/929H3r01w/BniuCiMcw1P7uAz4syv/QsvudwYv/DCjCY4Pi6Os1PJtTCcV4NUbNnhGrA3LFXupofy9K2NRvPN1Gie6HEsmg/lpDHY/NHl78dkczhCM+SqYPa0SOv0EKUPGIzg9dHNpMf23Ghsz12MlKUEbJ+b3L9PqP35ovbc74Davb5/99g+kH5+FWz3fmDfM3gzNKtYx07qDzJ977q5d2JfWPy0rjV7TVe9YKb7hfogLGED0a9SyUZJO5iSZQFGkQ/YUn9GSv7KoJZu9tKsWGgJs/kZJZ+dz83JhYI6l58rbAkFVVRzggogSRsl31eQJtrA2uTrhHSdADzG3cMvSTZkYztlayzA1JF8bQGRInEmW1izbOc8qZPeT0xyIZBcYOx8XpphgHyePV+QcnPzTAIWfLR5PjZOP6U47JNlU1/R2lrKbzAEP+3EG4GF73QYXaZdQih5q/gSsG+kBUjWrT9BOWMfLaVpjZ0jyPGBP/lQ0Na2d5y0A1MUJdsSlGxmJofzmRlZnsvIWNyCF6DcXF6ZmZvJ5WfJZ4Ze45DQNLyfshPeX7DwfyUg/Q8dqoh1g0AAAA==</t>
+          <t>8UEAAB+LCAAAAAAAAAPtnGlvG8cZgP/KQkABBzC1u6QuEuMNeOhgLUqKSFt2vhjL3aG01XKX3UMyv9koEjtpnCCNkyBX3SbI0SCOU8BNHEtN/0tg0vIn/4W+M7MnuZS5slPYBQPF5rzH3PO+zw61Ri9fbuvcHrZszTTOTInTwhSHDcVUNWP7zJTrtDLi3NTLElq8rGB9Q7bkNnbAmAMvwy5ctrUzUzuO0ynw/P7+/vR+btq0tvmsIIj8hdpqXdnBbTmjGbYjGwqeCrzUJ3tNSaistmvYkVXZkZnnmalqvTpdxppSAVlNNuRtbE2XXFszsG0vGo7maNgmnhaWHVyu1M6zgUnZ6blpEfFD8tCy5Gq6yuxilkzu2UGzuKG1sZQVskJGWMhkhYaQL4jwszCdncm+6jsGhmhVtp06tvY0hQrqjtzuUHdhAf7Pi3lxAfGJRlBXOAESWtfVTbyn2VgtY123U80I7y1gUXFg1OkmU0B8xNer6ORdWLbkzk5Dc3Sc1n3JtLACE3Wittfw/rrlzV+jswraxo5mOd2K3E1d1zkbW+sdMhvpXCVUMQ2nqGPLOdeBRcUqrDkoJMdyMeJHKEOnimYr8FkzXKxKLVm3o04xJdoyrV27Iyt4DQ4sT+rYN3RTVmFnOZrtaErY6JACbVhmB2qExkumri5BrZ5xgiKouWrAFJNmS6a5G/YuSYnoHqC7Ada0LTu++ZAc1XfM/XVD79bdpq1YWhOrlZJvnahD5OR53mXXdsw29CIUISaLSFSVr9X4LvwH521QiSpY0dqyvqHDVNpSDuqKCVDRdcyW5pRN3W0btt+zASnagnE18OVgnEEZrcMSG2TqTaNq+PZsshNVcYdNcz9oc1hBpyIiLtqKv+jDikHjCsj8RRzW0HUho1zSdEgH0RWJSON7o76DsZO4MZgGkci3RBKMVOquue0mHLImnLQ92qqN+FCPYLfCjod+SQIkjQz9aQhCgf5APwI1WjTU0Xa+EkFzkbYkMYv4ARGCMeklXTZ2QbqlOTtrRX8sCRrEZmCk/bAOwfnt6HKXioNZispQ1VB0V8UsLFSNFt2ipG9sUUeq0ZBoFU66hGSj2+h2IAzbWsGBD2emIDEXbMeC1D8lKaZrOFaXxA/Ee6ZP8rHdpkEbkPWxfVoW/qMLxNFdcg2lbKrjt6ay2TlnaM74PTRdiwXF8V3o7JH46NoVTCINDf1j+ytpxmRbqczbBm6bhqaMP9swyaT36gkGYvunamwPzM7X2PY6ZHeW/MhZH9vNAlyEdJeqmaJtm4pGN6t3PNSIPz/iyFRwS3Z1QDUHEu12EHsHxaho7w7aREXonKX7EVAiIGwDCStqe1oBhCC0N62YbSLgAUC36oiP2hMOUvCisb0qG9sukEYQVwblQfwlWbJhyYZNhhOAxUAoTjZCfpxiwCOx4LXu0o3AgpcJWsQP2KEGbndMS9ZrMDHakrftPGoCIKnJzo5XgtymY8WfZD50DbziPfM7/iQzmqTYMMiB98LkgJAakbEw5g5tQhkio6zBsdTLsq41LRZV/VSepIMFCxHRj79kcClx0V8DeO6C7HsWdwmMhwVPTres6CvYBiaBVKpvzixkZ/K5PJANKSM64mXLtG2uYrYxwT0OmE51FYc7tVzZeAnSHp0UL/GMYR+1REt+LKfNvQJ9ikviBsAU2xqkimHDQBM6SK+4EH2wpXcjtmxEq6YCpr1P/t17/bWHN289uP91/8pB78rh48Pr0MfHh2+wUTEz1JCbOqa9aZQWFoTcDGykQITI7PGUgMkgqeziRQq+QRl5D2q0UF6slpdXSzRgBELfneUMnjwDdk03LNZZ92lDdM14f6mZidTwA5BXjmkjOUgiz2R7OG4d1Y9yZHPx8ODrhwe3R3p7ExbClJjP5zNC7omslRVEMSNmR7DWaizIE+OZjDCbyWYjxgM2aJNF+GCeqqqUE+HhWQSqC4K1GuzbJKNBlVdTQ97mB/yYqMz4J9gC0bKvpLu+AeciULNzECmwSez/689Hd96PWXmz60nitUDnKKeQxni/QKte22xw9fVzm+VFrrFYJ/sk1EXsWOXHGHutBycpummCk3aagwQOCYubqsnWae73roFPc3XcOc3BU9BU5BzGtlySlDX3VBUP9hjCktthcSbiEEoTLMOAk+SREHSojs5tUvQJtQkeXlC6/UWSgzeWSgiw0matxDWNYJtSGYppmCii95q4cfXB/f88uH+//8O7vXtXYzV47QSXAbDt4XBFi8EpgAjo5ZcBCdqq0/ncFS5F8oknJA9OG6ZmOLY0y56ZvBICV5HURv9G1TakOFoxnS+QD0jQimwvXna8cy6tIT4ugH52ZMiuZvisGQhYSA/n9dFnf+1/crf/wQ9H177tvflN760PHh7cOvr+7+wQ9t//oX/jey/oD+YF2hfyBMugj6O3IgpHDidHcjX365X3OMN0OEAMzqUB6tcrH0UqIx2lMBLWDAgXdCTehSHTqDPx4yJdCfoQ8wtcWMIvk4yWCyy8nGZ2NCVs5NUMqYqcPqo4VW1kXBtzJtAT5PMB49B5XD/PhWXYjXkhSx6mQxG5Z5Cbsh2Z+mXdbMo65yvohcOASczreIfQlra3vLpeKq6GJqwT65aKLbIN2QdUtX2I9LdXRAJagDvF1cm90JDZsAr5nyLRi/cuWFpFlQS+5OuImAUqu5bFgMjwrufrbgeA17+MG62nF5QRxl1jPBql3rBcrcT1UI5oIRfG1URA9TQceSoWmqo2ucthyLpGpiYsgi52qQnT4d3AM9ja02AZeBJrFi3LtBIDTqjxzWpAyxBF+HDGAxueNMnIWg3Xyhf4Qe7ZEPasKMzHCLtcKnBFdY985WEXuA0YKLsRGWbrUZbHUPXKuFQ9ZJhE1XXc1mTDcGV9JFiXS48PPz66+1P/u196Bz/2P73Vu/6Ph29fA+GDe99C3pnQ9bOi6wVA67lx6Dr3P6FrYTb/ZLr2jCZ0PS5dr8h6K9PFMrBkQMEAwCdl6hNUN5qkV1KTdKLHsSQ9IuKMA9M33uz9fHdMnt44u8m1E3na14zg6Ycf/fLg3rXeT3d7t+73P7jT++yr3o3P+3duPiVYi6PBWrwUSSPDYD03AesJWL9YYC1OwPp5BuuBgPPcgjWQ/0IMrE9Vyi+tmHBQzpI/6sVN7lR5BzLNS9wmdmRN50qmoRKQtgAWC1xNUwvcylluVTN2uWKBE+YpCglCvsDlpueE3yUh+bNv4xiYr8yOCfNDhkkwX4HujaL4x4fXe1c/7d/+nEXwx4dvPPrqo/69O48++bF38/velfu96/cI0h/81P/bIWX7248+vEtv0T/2LN/7pf/2l0Uoh2OEQmQiJ88AT/sMAHM6mxGA2Gee9Awg5MkaCHPjPQPkMyKExPxJngEWxnkGWJg8A6R5BqAH9TQ3NcuZ4a+YnAD+09Qzmvorqak/0eNY6h8MTWPgfv/DL8dk/ZWzlSTQp+IRlA/xrPfan56S6bOjmT57KZLBhpleFOYWJlQ/ofoXiuqzE6p/nql+IOQ8t1Q/K5CvCiNUv7VRpTgNoavLFS2IIDq5DV8yTUDrpfMF7jzeLnDLFsYGt4FlO4na09dxDJVvzY1J5UOGSVS+hfHuSCzvv/Fz7513GXX337oGoQ5AHQYDfE4h/ODoq6u991/vvXeVcPgXt9iHpfPkSv7md0fvfErEn/3l6J+vTxD8GSK4KIxzDU/u4DPizG/9Sy653Bi/5MKMJgg+LoKzU8k1MZxXg2Rp2eHqsDcsVe6mB/H0tY3G8a3UOJ7ocSyOD8Wkca7f3/1mTB6HIzRDrgdmz4g0Tw+R+YDBCEYfXU16VM+NRvXcpUhaSkD1+cn9+4TUXyxSz72gpO61/X+P6gMh5zdBde8De2/BG6FZwTp2Ur946XvXzL0T+8Lip3Wt2uu66k1mul+cD6YlrCD69inZKGk7U7QsQCfyolrq10XJVwPVdKOXZKzg+Vkszsuzs62s3FRbSmteaOXmRKzKogrwSCsl71GQKtrA1+QthHSNADDG3cM3RjZlYztlbWyCqSN5qwJmyrv5o5E9KKMlzbKdCyRVep+Y5GIgucjw+YI0wxj5AitflHLzeSYBCz7aGh/rth9hHPamsqmvam0t5asXgh+F4pXAPuh0GGCmXVHIemv4MuBvpAaI180/QEZj7yqlqY0dKwjzgb9fV91tpq6O9503QE+/yTqR96IKaHZyb/rer6Y/RQcoe520iqpha9s7Ttp1zebzOTyHs5lsS1EyM1DIQD5uZlS5lQdubeVUEuSDyiE9aHg/ZSMkqWi2K+vp/fiBf7hB+i+zO7mm8UEAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -428,7 +428,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -702,7 +702,7 @@
         <v>41781</v>
       </c>
       <c r="D14" s="5">
-        <v>41781</v>
+        <v>43778</v>
       </c>
       <c r="E14" s="5">
         <v>41781</v>
@@ -800,7 +800,7 @@
         <v>1.122022037310848</v>
       </c>
       <c r="D20" s="2">
-        <v>-1.49587483823416</v>
+        <v>-1.495874838234159</v>
       </c>
       <c r="E20" s="2">
         <v>1.331969317931484</v>
@@ -816,7 +816,7 @@
         <v>0.8633734199124259</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3006970042568957</v>
+        <v>0.3006970042568948</v>
       </c>
       <c r="D21" s="2">
         <v>0.2405546382281765</v>
@@ -4838,4 +4838,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>380</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>380</EndRow>
+          <EndCol>3</EndCol>
+          <Name>CB: Advances: Personal</Name>
+          <DisplayName>CB: Advances: Personal</DisplayName>
+          <SeriesId>310905901</SeriesId>
+          <Code>SR4825107</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>380</EndRow>
+          <EndCol>4</EndCol>
+          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
+          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
+          <SeriesId>310905801</SeriesId>
+          <Code>SR4824938</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>380</EndRow>
+          <EndCol>5</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E770CF-DFE5-4C25-A139-227651339C40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_137.xlsx
+++ b/Testdata/TC_137.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8UEAAB+LCAAAAAAAAAPtnGlvG8cZgP/KQkABBzC1u6QuEuMNeOhgLUqKSFt2vhjL3aG01XKX3UMyv9koEjtpnCCNkyBX3SbI0SCOU8BNHEtN/0tg0vIn/4W+M7MnuZS5slPYBQPF5rzH3PO+zw61Ri9fbuvcHrZszTTOTInTwhSHDcVUNWP7zJTrtDLi3NTLElq8rGB9Q7bkNnbAmAMvwy5ctrUzUzuO0ynw/P7+/vR+btq0tvmsIIj8hdpqXdnBbTmjGbYjGwqeCrzUJ3tNSaistmvYkVXZkZnnmalqvTpdxppSAVlNNuRtbE2XXFszsG0vGo7maNgmnhaWHVyu1M6zgUnZ6blpEfFD8tCy5Gq6yuxilkzu2UGzuKG1sZQVskJGWMhkhYaQL4jwszCdncm+6jsGhmhVtp06tvY0hQrqjtzuUHdhAf7Pi3lxAfGJRlBXOAESWtfVTbyn2VgtY123U80I7y1gUXFg1OkmU0B8xNer6ORdWLbkzk5Dc3Sc1n3JtLACE3Wittfw/rrlzV+jswraxo5mOd2K3E1d1zkbW+sdMhvpXCVUMQ2nqGPLOdeBRcUqrDkoJMdyMeJHKEOnimYr8FkzXKxKLVm3o04xJdoyrV27Iyt4DQ4sT+rYN3RTVmFnOZrtaErY6JACbVhmB2qExkumri5BrZ5xgiKouWrAFJNmS6a5G/YuSYnoHqC7Ada0LTu++ZAc1XfM/XVD79bdpq1YWhOrlZJvnahD5OR53mXXdsw29CIUISaLSFSVr9X4LvwH521QiSpY0dqyvqHDVNpSDuqKCVDRdcyW5pRN3W0btt+zASnagnE18OVgnEEZrcMSG2TqTaNq+PZsshNVcYdNcz9oc1hBpyIiLtqKv+jDikHjCsj8RRzW0HUho1zSdEgH0RWJSON7o76DsZO4MZgGkci3RBKMVOquue0mHLImnLQ92qqN+FCPYLfCjod+SQIkjQz9aQhCgf5APwI1WjTU0Xa+EkFzkbYkMYv4ARGCMeklXTZ2QbqlOTtrRX8sCRrEZmCk/bAOwfnt6HKXioNZispQ1VB0V8UsLFSNFt2ipG9sUUeq0ZBoFU66hGSj2+h2IAzbWsGBD2emIDEXbMeC1D8lKaZrOFaXxA/Ee6ZP8rHdpkEbkPWxfVoW/qMLxNFdcg2lbKrjt6ay2TlnaM74PTRdiwXF8V3o7JH46NoVTCINDf1j+ytpxmRbqczbBm6bhqaMP9swyaT36gkGYvunamwPzM7X2PY6ZHeW/MhZH9vNAlyEdJeqmaJtm4pGN6t3PNSIPz/iyFRwS3Z1QDUHEu12EHsHxaho7w7aREXonKX7EVAiIGwDCStqe1oBhCC0N62YbSLgAUC36oiP2hMOUvCisb0qG9sukEYQVwblQfwlWbJhyYZNhhOAxUAoTjZCfpxiwCOx4LXu0o3AgpcJWsQP2KEGbndMS9ZrMDHakrftPGoCIKnJzo5XgtymY8WfZD50DbziPfM7/iQzmqTYMMiB98LkgJAakbEw5g5tQhkio6zBsdTLsq41LRZV/VSepIMFCxHRj79kcClx0V8DeO6C7HsWdwmMhwVPTres6CvYBiaBVKpvzixkZ/K5PJANKSM64mXLtG2uYrYxwT0OmE51FYc7tVzZeAnSHp0UL/GMYR+1REt+LKfNvQJ9ikviBsAU2xqkimHDQBM6SK+4EH2wpXcjtmxEq6YCpr1P/t17/bWHN289uP91/8pB78rh48Pr0MfHh2+wUTEz1JCbOqa9aZQWFoTcDGykQITI7PGUgMkgqeziRQq+QRl5D2q0UF6slpdXSzRgBELfneUMnjwDdk03LNZZ92lDdM14f6mZidTwA5BXjmkjOUgiz2R7OG4d1Y9yZHPx8ODrhwe3R3p7ExbClJjP5zNC7omslRVEMSNmR7DWaizIE+OZjDCbyWYjxgM2aJNF+GCeqqqUE+HhWQSqC4K1GuzbJKNBlVdTQ97mB/yYqMz4J9gC0bKvpLu+AeciULNzECmwSez/689Hd96PWXmz60nitUDnKKeQxni/QKte22xw9fVzm+VFrrFYJ/sk1EXsWOXHGHutBycpummCk3aagwQOCYubqsnWae73roFPc3XcOc3BU9BU5BzGtlySlDX3VBUP9hjCktthcSbiEEoTLMOAk+SREHSojs5tUvQJtQkeXlC6/UWSgzeWSgiw0matxDWNYJtSGYppmCii95q4cfXB/f88uH+//8O7vXtXYzV47QSXAbDt4XBFi8EpgAjo5ZcBCdqq0/ncFS5F8oknJA9OG6ZmOLY0y56ZvBICV5HURv9G1TakOFoxnS+QD0jQimwvXna8cy6tIT4ugH52ZMiuZvisGQhYSA/n9dFnf+1/crf/wQ9H177tvflN760PHh7cOvr+7+wQ9t//oX/jey/oD+YF2hfyBMugj6O3IgpHDidHcjX365X3OMN0OEAMzqUB6tcrH0UqIx2lMBLWDAgXdCTehSHTqDPx4yJdCfoQ8wtcWMIvk4yWCyy8nGZ2NCVs5NUMqYqcPqo4VW1kXBtzJtAT5PMB49B5XD/PhWXYjXkhSx6mQxG5Z5Cbsh2Z+mXdbMo65yvohcOASczreIfQlra3vLpeKq6GJqwT65aKLbIN2QdUtX2I9LdXRAJagDvF1cm90JDZsAr5nyLRi/cuWFpFlQS+5OuImAUqu5bFgMjwrufrbgeA17+MG62nF5QRxl1jPBql3rBcrcT1UI5oIRfG1URA9TQceSoWmqo2ucthyLpGpiYsgi52qQnT4d3AM9ja02AZeBJrFi3LtBIDTqjxzWpAyxBF+HDGAxueNMnIWg3Xyhf4Qe7ZEPasKMzHCLtcKnBFdY985WEXuA0YKLsRGWbrUZbHUPXKuFQ9ZJhE1XXc1mTDcGV9JFiXS48PPz66+1P/u196Bz/2P73Vu/6Ph29fA+GDe99C3pnQ9bOi6wVA67lx6Dr3P6FrYTb/ZLr2jCZ0PS5dr8h6K9PFMrBkQMEAwCdl6hNUN5qkV1KTdKLHsSQ9IuKMA9M33uz9fHdMnt44u8m1E3na14zg6Ycf/fLg3rXeT3d7t+73P7jT++yr3o3P+3duPiVYi6PBWrwUSSPDYD03AesJWL9YYC1OwPp5BuuBgPPcgjWQ/0IMrE9Vyi+tmHBQzpI/6sVN7lR5BzLNS9wmdmRN50qmoRKQtgAWC1xNUwvcylluVTN2uWKBE+YpCglCvsDlpueE3yUh+bNv4xiYr8yOCfNDhkkwX4HujaL4x4fXe1c/7d/+nEXwx4dvPPrqo/69O48++bF38/velfu96/cI0h/81P/bIWX7248+vEtv0T/2LN/7pf/2l0Uoh2OEQmQiJ88AT/sMAHM6mxGA2Gee9Awg5MkaCHPjPQPkMyKExPxJngEWxnkGWJg8A6R5BqAH9TQ3NcuZ4a+YnAD+09Qzmvorqak/0eNY6h8MTWPgfv/DL8dk/ZWzlSTQp+IRlA/xrPfan56S6bOjmT57KZLBhpleFOYWJlQ/ofoXiuqzE6p/nql+IOQ8t1Q/K5CvCiNUv7VRpTgNoavLFS2IIDq5DV8yTUDrpfMF7jzeLnDLFsYGt4FlO4na09dxDJVvzY1J5UOGSVS+hfHuSCzvv/Fz7513GXX337oGoQ5AHQYDfE4h/ODoq6u991/vvXeVcPgXt9iHpfPkSv7md0fvfErEn/3l6J+vTxD8GSK4KIxzDU/u4DPizG/9Sy653Bi/5MKMJgg+LoKzU8k1MZxXg2Rp2eHqsDcsVe6mB/H0tY3G8a3UOJ7ocSyOD8Wkca7f3/1mTB6HIzRDrgdmz4g0Tw+R+YDBCEYfXU16VM+NRvXcpUhaSkD1+cn9+4TUXyxSz72gpO61/X+P6gMh5zdBde8De2/BG6FZwTp2Ur946XvXzL0T+8Lip3Wt2uu66k1mul+cD6YlrCD69inZKGk7U7QsQCfyolrq10XJVwPVdKOXZKzg+Vkszsuzs62s3FRbSmteaOXmRKzKogrwSCsl71GQKtrA1+QthHSNADDG3cM3RjZlYztlbWyCqSN5qwJmyrv5o5E9KKMlzbKdCyRVep+Y5GIgucjw+YI0wxj5AitflHLzeSYBCz7aGh/rth9hHPamsqmvam0t5asXgh+F4pXAPuh0GGCmXVHIemv4MuBvpAaI180/QEZj7yqlqY0dKwjzgb9fV91tpq6O9503QE+/yTqR96IKaHZyb/rer6Y/RQcoe520iqpha9s7Ttp1zebzOTyHs5lsS1EyM1DIQD5uZlS5lQdubeVUEuSDyiE9aHg/ZSMkqWi2K+vp/fiBf7hB+i+zO7mm8UEAAA==</t>
+          <t>g0AAAB+LCAAAAAAAAAPtnOtvG1UWwP+VUaSVQKozM3biONbtID/y8DZOQuw2LV+q8cxNMpvxjHceSf2t1QpaWApiKSBe210QsIsoBakLpQnd/wXVbvqp/8Kee+887XHqScuKIqMKMudxH+fee85vbjOgly61dW4PW7ZmGqenxGlhisOGYqqasX16ynW2MmJ+6iUJLVxSsL4uW3IbO2DMgZdhFy/Z2umpHcfpFHl+f39/ej83bVrbfFYQRP58faWh7OC2nNEM25ENBU8FXuqTvaYkVFHbdezIquzIzPP0VK1Rm65gTamCrC4b8ja2psuurRnYthcMR3M0bBNPC8sOrlTr59jEpOx0flpE/JA8tCy7mq4yu5glk3t20C1uam0sZQWxkBHFTHa+KcwVhUJRzE4XxNwrvmNgiFZk22lga09TqKDhyO0OdRfF7LwwJxTELOITjaCtMAASWtPVDbyn2VitYF23U0WE9xawpDgw63TBFBAf8fUaOvkQliy5s9PUHB2ndV80LaxAoE7U9yreX7O8+DU7K6Bt7miW063K3dRtnbWxtdYh0UjnKqGqaTglHVvO2Q4sKlZhzUEhOZaLET9CGTpVNVuBnzXDxaq0Jet21CmmRJumtWt3ZAWvwoHlSRv7hm7KKuwsR7MdTQk7HVKgdcvsQIvQednU1UVo1TNOUAQt1wwIMem2bJq74eiSlIjuAbobYE3bsuObD8lRY8fcXzP0bsNt2YqltbBaLfvWiTpETp7nXXFtx2zDKEIRYrKIRFX5ep3vwj9w3gaVqIoVrS3r6zqE0pZy0FZMgEquY25pTsXU3bZh+yMbkKJNmFcTXwrmGTyjNVhig4TeNGqGb8+CnaiKO2yY+0Gfwwoaioi4ZCv+og8rBo2rIPMXcVhD14XMclHToRxEVyQije+Nxg7GTuLGYBpEMt8iKTBSubvqtltwyFpw0vZorzbiQz2C3Qo7HsYlCVA0MvRPUxCK9A+MI1CjBUMdbecrEXQX6UsiKXlAhGBOelmXjV2QbmrOzmrJn0uCBrEIjLQf1iE4vx1d7lJxEKWoDNUMRXdVzNJCzdiiW5SMjS3qSDUaEq3ASZeQbHSb3Q6kYVsrOvDD6SkozEXbsaD0T0mK6RqO1SX5A/Ge6ZN8bLdl0A5kfWyfLQv/2QXi6C66hlIx1fF7U1l0zhqaM/4ITddiSXF8Fxo9kh9du4pJpqGpf2x/Jc2cbCuVedvAbdPQlPGjDUEmo1dPMBHbP1Vje2B2vsa216G6s+JHzvrYbhbgIpS7VN2UbNtUNLpZveOhRvz5EUemirdkVwdUc6DQbge5d1CMSvbuoE1UhM5aup8BJQLCNpCworanFUAIQnvTitkmAh4AdLOB+Kg94SAFLxjbK7Kx7QJpBHllUB7kX1Ilm5Zs2GQ6AVgMpOJkI+TnKQY8Ekteay7dCCx5maBF/IAdauJ2x7RkvQ6B0Ra9bedREwBJXXZ2vCeobTpW/CDzoWvgFR+ZP/AnmdEixaZBDryXJgeE1IjMhTF3aBPKEJllHY6lXpF1rWWxrOqX8iQdLFiIiH7+JZNLiYv+GsB7F1TfM7hLYDx88OR0y4q+gm1gkkilxsZMITszn5sHsiHPiM54yTJtm6uabUxwjwOmU13F4V5Yqq6/CGWPBsUrPGPYRy3Rop/LaXcvw5jikrgBMMW2BqVi2DDQhA7Syy5kH2zp3Ygtm9GKqYBp7+Ofe6+9+vDGzQf3vupfPuhdPnx8eA3G+PjwdTYrZoaackvHdDTNcqEg5GZgIwUiRKLHUwImk6SyCxco+AbPyHtRow+VhVplaaVME0Yg9N1ZzeDJO2DXdMPHBhs+7YiuGe8vNTORmn4C8p5j2kgNksg72R6OW0f1oxxZLB4efPXw4NZIby9gIUyJ8/PzGSH3RNaCt1sxI2ZHsNZKLMkT45mMMJvJZiPGAzZog2X4IE41VcqJwrwoAtUFyVoN9m2S0aDKa6kpb/MDfkxUYfwTbIHos6+ku74J5yJQs3MQeWBB7P/nr0e334tZedH1JPFWYHCUU0hnvP9Am17daHKNtbMblQWuudAg+yTURexY48cYe70HJym6aYKTdoqDAg4Fi5uqy9Yp7o+ugU9xDdw5xcFb0FTkHMa2XJKUdfdUDQ+OGNKS22F5JuIQShMsw4ST5JGQdKiOxjYp+4TaBA8vKd36PMnBm0s1BFhpo17mWkawTakMxTRMFNF7XVy/8uDefx/cu9f/7p3e3SuxFrx+gssA2PZwuKKPwSmADOjVlwEJ2mzQeO4KFyP1xBOSF6d1UzMcW5pl70zeEwJXkbRG/4tqbShxtGEaL5APSNCybC9ccrxzLq0iPi6AcXZkqK5m+K4ZCFhKD+P66NO/9z++03//u6OrX/fe+FfvzfcfHtw8+vaf7BD23/uuf/1bL+kP1gU6FvIGy6CPo7ciCkcOJ0dqNffL5Xc5w3Q4QAzOpQnql8sfRhojA6UwErYMCBcMJD6EIdOoM/HjIkMJxhDzC1xYwa+QipYLLLyaZnY0JezklQxpipw+qnih1sy4NuZMoCeo5wPGofO4fp4Lq7Drc0KWvEyHInLPILdkOxL6Jd1syTrnK+iFw4BJzOt4h9CW9re0slYurYQmbBBrlootsg3ZD8hHSFJharb/5G+1iAS0AHqKq5M7oiGzYVXQciST8d5ly1ZJJUkw+WoiZoEqrmUxODK8q/qG2wH49S/mRuvpZWWEd1cZm0YJOHyuVeN6eI5ooS7G1URA9TQ1eSqWpmo2uddh+LpKQhM+gi52wQnh8G7jGXjtabAkPMk7C5ZlWonJJ9T4ZnUgZ8gofBjxwIauKaNsNVwrX+AnvGdD27OiMBej7Uq5yJXUPfLXH3aRW4eJstuRYc4eZXkMYS+PS9hDhkmE3cBtTTYMV9ZHQnal/Pjwo6M7P/a/ud87+KH/yc3etX8/fOsqCB/c/Rpq0IS0nxVpFwCz8+OQdu7/QtrC7PyTSdszmpD2uKS9LOtbmS6WgSsDIgYYPilfn6C50VS9nJqqEz2OpeoRGWccsL7+Ru+nO2Oy9fqZDa6dyNa+ZgRbP/zw/oO7V3s/3undvNd//3bv0y971z/r377xlJAtjoZs8WKkjAxDdn4C2RPIfr4gW5xA9vMC2QPJ5zcL2fAWUIhB9gvVyovLJhyaM+RfG9iRNZ0rm4ZKQNoCWCxydU0tcstnuBXN2OVKRU6YoygkCPNFLjedF/6QhOTPpt1jAL46OybADxkmAXwVhjeK3B8fXutd+aR/6zOWtR8fvv7oyw/7d28/+viH3o1ve5fv9a7dJRh/8GP/H4eU5289+uAOvUX/yLN8937/rS9K8BzOER4iwZtw/9NyP8R0NiMApc88ifuFebIGQv5X5/7CONxfmHB/Gu6nB/UUNzXLmeGvmJwA+NO0M5r0q6lJP9HjWNIfTE1jIH7/gy/G5PvlM9UkuKfiEWQP+az36l+ekuOzozk+ezFSqYY5XhTyhQnJT0j+uSL57ITknxeSH0g/v1mSnxXIXxtGSH5zvUbRGtJYlytZkE10chu+aJqA2Yvnitw5vF3kliyMDW4dy3YStadv4xhC38yPSehDhkmEvonx7khE77/+U+/tdxiB99+8CmkPoB0mA6xOgfzg6Msrvfde6717hTD55zfZD4vnyJX8jW+O3v6EiD/929H3r01w/BniuCiMcw1P7uAz4syv/QsvudwYv/DCjCY4Pi6Os1PJtTCcV4NUbNnhGrA3LFXupofy9K2NRvPN1Gie6HEsmg/lpDHY/NHl78dkczhCM+SqYPa0SOv0EKUPGIzg9dHNpMf23Ghsz12MlKUEbJ+b3L9PqP35ovbc74Davb5/99g+kH5+FWz3fmDfM3gzNKtYx07qDzJ977q5d2JfWPy0rjV7TVe9YKb7hfogLGED0a9SyUZJO5iSZQFGkQ/YUn9GSv7KoJZu9tKsWGgJs/kZJZ+dz83JhYI6l58rbAkFVVRzggogSRsl31eQJtrA2uTrhHSdADzG3cMvSTZkYztlayzA1JF8bQGRInEmW1izbOc8qZPeT0xyIZBcYOx8XpphgHyePV+QcnPzTAIWfLR5PjZOP6U47JNlU1/R2lrKbzAEP+3EG4GF73QYXaZdQih5q/gSsG+kBUjWrT9BOWMfLaVpjZ0jyPGBP/lQ0Na2d5y0A1MUJdsSlGxmJofzmRlZnsvIWNyCF6DcXF6ZmZvJ5WfJZ4Ze45DQNLyfshPeX7DwfyUg/Q8dqoh1g0AAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -428,7 +428,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -702,7 +702,7 @@
         <v>41781</v>
       </c>
       <c r="D14" s="5">
-        <v>43778</v>
+        <v>41781</v>
       </c>
       <c r="E14" s="5">
         <v>41781</v>
@@ -800,7 +800,7 @@
         <v>1.122022037310848</v>
       </c>
       <c r="D20" s="2">
-        <v>-1.495874838234159</v>
+        <v>-1.49587483823416</v>
       </c>
       <c r="E20" s="2">
         <v>1.331969317931484</v>
@@ -816,7 +816,7 @@
         <v>0.8633734199124259</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3006970042568948</v>
+        <v>0.3006970042568957</v>
       </c>
       <c r="D21" s="2">
         <v>0.2405546382281765</v>
@@ -4838,70 +4838,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>380</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>380</EndRow>
-          <EndCol>3</EndCol>
-          <Name>CB: Advances: Personal</Name>
-          <DisplayName>CB: Advances: Personal</DisplayName>
-          <SeriesId>310905901</SeriesId>
-          <Code>SR4825107</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>380</EndRow>
-          <EndCol>4</EndCol>
-          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
-          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
-          <SeriesId>310905801</SeriesId>
-          <Code>SR4824938</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>380</EndRow>
-          <EndCol>5</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E770CF-DFE5-4C25-A139-227651339C40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>